--- a/posts/pool-landscape-report-april-2023-week-4/data/Book1.xlsx
+++ b/posts/pool-landscape-report-april-2023-week-4/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophegarant/balance_analytics_2023_03_16/BALANCE_Media_Preview/posts/pool-landscape-report-april-2023-week-4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE3E82-43C7-8046-97AF-F37BEABCA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E485C0-CCD5-D843-AEB8-912A22B8C822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="13380" windowHeight="11760" xr2:uid="{BACE245F-8900-6A40-834F-4537F35E4692}"/>
+    <workbookView xWindow="19900" yWindow="500" windowWidth="13380" windowHeight="11760" xr2:uid="{BACE245F-8900-6A40-834F-4537F35E4692}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
